--- a/Assets/Internationalization/Tutorial_String_Data.xlsx
+++ b/Assets/Internationalization/Tutorial_String_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Game Projects\Godot Projects\city_of_circling\Assets\Internationalization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED189EE2-EE67-4C7F-8EFF-C055FA02393D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1CE0AC-E27B-42BF-9A6F-70E4B0A0A407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{08590711-CB36-410F-B5A8-7B8F5AA8D814}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>en</t>
   </si>
@@ -94,27 +94,9 @@
     <t>TUTORIAL_UPGRADE_2</t>
   </si>
   <si>
-    <t>点击角色开始移动。</t>
-  </si>
-  <si>
-    <t>操作鼠标沿格子移动即可规划路径，点击终点以确认。</t>
-  </si>
-  <si>
     <t>“感谢你的水果！送你 2 张交换券，可以在商店买东西用哦。”</t>
   </si>
   <si>
-    <t>"可以麻烦帮我捎个口信给长颈鹿吗？拜托了！”</t>
-  </si>
-  <si>
-    <t>“感谢稍信！给你 1 张交换券，有空的话去附近的商店看看吧。”</t>
-  </si>
-  <si>
-    <t>获得了2个自选水果。点击对应的发光水果图标，获取想要的水果吧。</t>
-  </si>
-  <si>
-    <t>但目前还没有升级券呢。先努力完成委托，在商店买下升级券吧。</t>
-  </si>
-  <si>
     <t>TUTORIAL_GATE_BUTTON</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -154,85 +136,231 @@
     <t>TUTORIAL_GATE</t>
   </si>
   <si>
-    <t>目前在这里可以购买到两种升级。请购买 “商店刷新+”。</t>
-  </si>
-  <si>
-    <t>通常升级商店会同时出售基础升级 和 特殊升级。</t>
-  </si>
-  <si>
-    <t>基础升级可以多次购买，等级和效果随之提升。可以在描述中查看当前等级和效果。</t>
-  </si>
-  <si>
-    <t>除了无限供应的3%d盲盒，其他商品在购买后会暂时售罄。</t>
-  </si>
-  <si>
-    <t>只有每日的0:00 / 8:00 / 16:00，以及使用手动刷新时，商店才会随机补货</t>
-  </si>
-  <si>
-    <t>手动刷新次数会在每日0:00补充</t>
-  </si>
-  <si>
     <t>你已经准备好了。</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>这里是盘旋城。</t>
-  </si>
-  <si>
-    <t>每次移动会花费 1 小时的时间。</t>
-  </si>
-  <si>
-    <t>请前往那个奇怪的格子。</t>
-  </si>
-  <si>
-    <t>获得了一个苹果。虽然不知道能用来做什么...</t>
-  </si>
-  <si>
-    <t>一位城民朋友好像有请求。前往拜访看看吧。</t>
-  </si>
-  <si>
     <t>“我想要 1 个苹果和 1 串葡萄，拜托了！”</t>
   </si>
   <si>
-    <t>还差一串葡萄才能完成委托。</t>
-  </si>
-  <si>
     <t>TUTORIAL_NPC_11</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>前面的格子或许可以抽到。祝好运。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>另一位城民似乎也有请求？拜访看看吧。</t>
   </si>
   <si>
-    <t>除了水果委托外，有时也会接到稍信委托。</t>
-  </si>
-  <si>
-    <t>不同于水果委托，只是经过长颈鹿也能完成任务获得奖励，不必停留。</t>
-  </si>
-  <si>
-    <t>运气不错。现在请返回城民处提交水果。</t>
-  </si>
-  <si>
-    <t>商店是可以使用交换券购买物品的地方。拜访看看吧。</t>
-  </si>
-  <si>
-    <t>目前商品价格不菲。请先购入盲盒试试手气吧。</t>
-  </si>
-  <si>
-    <t>升级商店是用升级券解锁各种升级的地方。</t>
-  </si>
-  <si>
-    <t>获得了一张贸易升级券。现在去拜访贸易升级商店看看吧。</t>
-  </si>
-  <si>
-    <t>目前买到的是 “商店刷新+”，因此解锁了手动刷新商店的能力。</t>
-  </si>
-  <si>
-    <t>若准备完毕，请前往城门结束教程，开始正式游戏吧。</t>
+    <t>TUTORIAL_NPC_12</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得了 1 个苹果。\n虽然不知道能用来做什么...</t>
+  </si>
+  <si>
+    <t>前面的格子或许可以抽到。\n试试看吧。</t>
+  </si>
+  <si>
+    <t>欢迎来到盘旋城。</t>
+  </si>
+  <si>
+    <t>点一下角色就能开始移动。</t>
+  </si>
+  <si>
+    <t>移动鼠标沿格子规划路径，点一下终点就能确认。</t>
+  </si>
+  <si>
+    <t>移动一次会消耗 1 小时，要留意哦。</t>
+  </si>
+  <si>
+    <t>试着走到那个奇怪的格子上吧。</t>
+  </si>
+  <si>
+    <t>一位城民似乎需要帮助。\n拜访看看吧。</t>
+  </si>
+  <si>
+    <t>还差 1 串葡萄，就能完成委托。</t>
+  </si>
+  <si>
+    <t>抽到了需要的水果。\n现在回去交给城民吧。</t>
+  </si>
+  <si>
+    <t>另外，不同于接受水果委托，\n提交水果不用停下脚步，路过城民时就会自动交付。</t>
+  </si>
+  <si>
+    <t>传信任务路过目标也能自动完成。\n好好利用可以节省时间哦。</t>
+  </si>
+  <si>
+    <t>商店开张了，可以用交换券买东西。\n进去看看吧。</t>
+  </si>
+  <si>
+    <t>现在商品有点贵。\n不如先买个盲盒碰碰运气？</t>
+  </si>
+  <si>
+    <t>获得了 2 个自选水果。\n点击亮着的水果图标，挑你想要的吧。</t>
+  </si>
+  <si>
+    <t>升级商店里，可以用升级券解锁各种能力。</t>
+  </si>
+  <si>
+    <t>现在还没有升级券呢。\n先努力完成委托，在商店里买 1 张吧。</t>
+  </si>
+  <si>
+    <t>获得了 1 张贸易升级券。\n去贸易升级商店看看吧。</t>
+  </si>
+  <si>
+    <t>目前这里有两种升级可选。\n先买“商店刷新+”吧。</t>
+  </si>
+  <si>
+    <t>升级商店通常会卖 基础升级 和 特殊升级。</t>
+  </si>
+  <si>
+    <t>基础升级可以反复购买，等级和效果随之提升。\n可以在描述中查看当前等级和效果。</t>
+  </si>
+  <si>
+    <t>刚刚买到的是 “商店刷新+”，现在可以手动刷新商店。</t>
+  </si>
+  <si>
+    <t>除了无限供应的 3%s 盲盒，其他商品买完都会暂时缺货。</t>
+  </si>
+  <si>
+    <t>商店会在每天 00:00 / 08:00 / 16:00 上架随机商品，或者手动刷新时也会更新。</t>
+  </si>
+  <si>
+    <t>手动刷新次数会在每日00:00重置。</t>
+  </si>
+  <si>
+    <t>准备妥当的话，就前往城门结束教程，正式开始游戏吧。</t>
+  </si>
+  <si>
+    <t>End Tutorial</t>
+  </si>
+  <si>
+    <t>Click on your character to start moving.</t>
+  </si>
+  <si>
+    <t>Try stepping on that strange tile over there.</t>
+  </si>
+  <si>
+    <t>You got 1 Apple!\nNot sure what it's for yet...</t>
+  </si>
+  <si>
+    <t>"I need 1 Apple and 1 Grapes, please!"</t>
+  </si>
+  <si>
+    <t>Just 1 Grapes left to complete the request.</t>
+  </si>
+  <si>
+    <t>That tile ahead might have some.\nGive it a try.</t>
+  </si>
+  <si>
+    <t>Got the fruit you needed!\nNow head back to deliver it.</t>
+  </si>
+  <si>
+    <t>By the way, unlike accepting requests,\nyou can deliver fruit just by passing by. No need to stop!</t>
+  </si>
+  <si>
+    <t>"Could you deliver a message to the Giraffe for me? Please!"</t>
+  </si>
+  <si>
+    <t>Message deliveries complete automatically when you pass by too.\nUse this to save time!</t>
+  </si>
+  <si>
+    <t>Things are a bit pricey right now.\nHow about trying a Mystery Box?</t>
+  </si>
+  <si>
+    <t>There are two upgrades available here.\nGet "Shop Refresh+" first.</t>
+  </si>
+  <si>
+    <t>You just got "Shop Refresh+", so now you can manually refresh the shop.</t>
+  </si>
+  <si>
+    <t>Except for the unlimited 3%s Mystery Boxes, other items go out of stock after purchase.</t>
+  </si>
+  <si>
+    <t>Manual refresh uses reset daily at 00:00.</t>
+  </si>
+  <si>
+    <t>When you're ready, head to the city gate to end the tutorial and start the real game!</t>
+  </si>
+  <si>
+    <t>You're ready to proceed.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Welcome to the City of Circling.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move your mouse along tiles to plan a path, \nthen click the destination to confirm.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Each move takes 1 hour. Keep that in mind.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A citizen seems to need help.\nGo pay them a visit.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Another citizen has a request too? Go check it out.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Thanks for the fruit! Here's 2 Exchange Coupons you can use at the shop."</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Thanks for the message! Here's 1 Exchange Coupon. Check out the shop nearby when you can."</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Besides fruit requests, you'll sometimes get message delivery requests.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The shop is open! You can buy things with Exchange Coupons.\nTake a look.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>You got 2 Fruits of your choice!\nClick the glowing fruit icons to pick the ones you want.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Upgrade Shop lets you unlock abilities with Upgrade Coupons.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>You don't have any Upgrade Coupons yet.\nComplete some requests first, then buy one at the shop.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>You got 1 Trade Upgrade Coupon!\nVisit the Trade Upgrade Shop.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade Shops usually sell Basic Upgrades and Special Upgrades.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic Upgrades can be bought multiple times, improving with each level.\nCheck the tooltip for current level and effects.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The shop restocks at 00:00 / 08:00 / 16:00 daily with random goods, or when you manually refresh.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了水果，有时也会接到传信的委托。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"可以麻烦帮我传个口信给长颈鹿吗？拜托了！”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>“感谢传信！给你 1 张交换券，有空的话去附近的商店看看吧。”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -840,14 +968,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1211,14 +1336,14 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="36.75" customWidth="1"/>
-    <col min="2" max="2" width="56.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.875" customWidth="1"/>
+    <col min="2" max="2" width="109.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1234,341 +1359,432 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A44" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="28.5">
-      <c r="A30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="3" t="s">
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="28.5">
-      <c r="A35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="28.5">
-      <c r="A39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A45" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="28.5">
-      <c r="A46" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
